--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-1 (26 Juli 2021 -  1 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-1 (26 Juli 2021 -  1 Agustus 2021).xlsx
@@ -1086,7 +1086,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F18" s="9" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G18" s="7" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-1 (26 Juli 2021 -  1 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-1 (26 Juli 2021 -  1 Agustus 2021).xlsx
@@ -1034,7 +1034,7 @@
       </c>
       <c r="E14" s="12" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="F14" s="17" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="E26" s="12" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="F26" s="17" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="E28" s="12" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="F28" s="17" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E37" s="12" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="F37" s="17" t="inlineStr">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-1 (26 Juli 2021 -  1 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-1 (26 Juli 2021 -  1 Agustus 2021).xlsx
@@ -1594,7 +1594,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F30" s="18" t="inlineStr"/>
+      <c r="F30" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G30" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-1 (26 Juli 2021 -  1 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-1 (26 Juli 2021 -  1 Agustus 2021).xlsx
@@ -553,7 +553,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:G37"/>
+      <selection activeCell="E2" sqref="A1:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-1 (26 Juli 2021 -  1 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-1 (26 Juli 2021 -  1 Agustus 2021).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11520" yWindow="12" windowWidth="11484" windowHeight="10500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -553,7 +553,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:G37"/>
+      <selection activeCell="C7" sqref="A1:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-1 (26 Juli 2021 -  1 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-1 (26 Juli 2021 -  1 Agustus 2021).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11520" yWindow="12" windowWidth="11484" windowHeight="10500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -553,7 +553,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:G37"/>
+      <selection activeCell="G6" sqref="A1:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
